--- a/dsalgo/src/test/resources/testdata/TestData.xlsx
+++ b/dsalgo/src/test/resources/testdata/TestData.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saumdas/git/dsalgo/dsalgo/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B7A10BD-CFD8-294C-97BC-AB46FBB6F9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BDFC74-A965-6544-A315-95E9CFD618E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>ninja153</t>
   </si>
@@ -47,12 +55,18 @@
   <si>
     <t xml:space="preserve">sdet@153 </t>
   </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,12 +206,6 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,15 +390,15 @@
   </fills>
   <borders count="10">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -398,8 +406,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -407,8 +415,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -416,12 +424,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -431,12 +439,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -446,8 +454,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -455,12 +463,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="double">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
+      </left>
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -470,12 +478,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -485,8 +493,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -540,10 +548,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -603,7 +610,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -756,25 +763,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -782,25 +789,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -813,21 +820,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -841,7 +848,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -853,32 +860,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -918,50 +925,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
